--- a/dist/document/dest/2020/10/chi lam/13_ntn.xlsx
+++ b/dist/document/dest/2020/10/chi lam/13_ntn.xlsx
@@ -11,18 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Công ty TNHH DP Hoàng Trân</t>
   </si>
   <si>
-    <t>Trình Dược Viên: chi lam</t>
-  </si>
-  <si>
-    <t>PHÍ THÁNG (01/09 -&gt; 30/09/2020)</t>
-  </si>
-  <si>
-    <t>Bác Sĩ: Nguyễn Thuý Nga</t>
+    <t>TDV: chi lam</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
+  </si>
+  <si>
+    <t>Kính gửi khách hàng: 13</t>
   </si>
   <si>
     <t>STT</t>
@@ -46,22 +46,19 @@
     <t>CK</t>
   </si>
   <si>
-    <t>BS One</t>
-  </si>
-  <si>
-    <t>Cardorite</t>
-  </si>
-  <si>
-    <t>Bonzacim</t>
-  </si>
-  <si>
-    <t>Sanaperol</t>
-  </si>
-  <si>
-    <t>Tarfloz</t>
-  </si>
-  <si>
-    <t>Lucass 200</t>
+    <t>BS O**</t>
+  </si>
+  <si>
+    <t>Card*****</t>
+  </si>
+  <si>
+    <t>Sana*****</t>
+  </si>
+  <si>
+    <t>Tarf***</t>
+  </si>
+  <si>
+    <t>Luca******</t>
   </si>
   <si>
     <t>Tổng cộng</t>
@@ -510,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -596,19 +593,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="D6" s="10">
         <v>4000</v>
       </c>
       <c r="E6" s="10">
-        <v>1440000</v>
+        <v>840000</v>
       </c>
       <c r="F6" s="10">
         <v>40</v>
       </c>
       <c r="G6" s="10">
-        <v>576000</v>
+        <v>336000</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -619,19 +616,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="10">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="D7" s="10">
         <v>13000</v>
       </c>
       <c r="E7" s="10">
-        <v>2145000</v>
+        <v>3510000</v>
       </c>
       <c r="F7" s="10">
         <v>45</v>
       </c>
       <c r="G7" s="10">
-        <v>965250</v>
+        <v>1579500</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -642,19 +639,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="10">
-        <v>30</v>
+        <v>1169</v>
       </c>
       <c r="D8" s="10">
-        <v>8900</v>
+        <v>7900</v>
       </c>
       <c r="E8" s="10">
-        <v>267000</v>
+        <v>9235100</v>
       </c>
       <c r="F8" s="10">
         <v>45</v>
       </c>
       <c r="G8" s="10">
-        <v>120150</v>
+        <v>4155795</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -665,19 +662,19 @@
         <v>14</v>
       </c>
       <c r="C9" s="10">
-        <v>1760</v>
+        <v>120</v>
       </c>
       <c r="D9" s="10">
-        <v>7900</v>
+        <v>3600</v>
       </c>
       <c r="E9" s="10">
-        <v>13904000</v>
+        <v>432000</v>
       </c>
       <c r="F9" s="10">
         <v>45</v>
       </c>
       <c r="G9" s="10">
-        <v>6256800</v>
+        <v>194400</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -688,77 +685,54 @@
         <v>15</v>
       </c>
       <c r="C10" s="10">
-        <v>720</v>
+        <v>180</v>
       </c>
       <c r="D10" s="10">
-        <v>3600</v>
+        <v>14700</v>
       </c>
       <c r="E10" s="10">
-        <v>2592000</v>
+        <v>2646000</v>
       </c>
       <c r="F10" s="10">
         <v>45</v>
       </c>
       <c r="G10" s="10">
-        <v>1166400</v>
-      </c>
-    </row>
-    <row r="11" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>6</v>
-      </c>
-      <c r="B11" s="9" t="s">
+        <v>1190700</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10">
-        <v>94</v>
-      </c>
-      <c r="D11" s="10">
-        <v>14700</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1381800</v>
-      </c>
-      <c r="F11" s="10">
-        <v>45</v>
-      </c>
-      <c r="G11" s="10">
-        <v>621810</v>
-      </c>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="11">
+        <v>1949</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11">
+        <v>16663100</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11">
+        <v>7456395</v>
+      </c>
+    </row>
+    <row r="12" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="11">
-        <v>3129</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11">
-        <v>21729800</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11">
-        <v>9706410</v>
-      </c>
-    </row>
-    <row r="13" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
